--- a/Production Raw Data/Summary of Materials made in each tank.xlsx
+++ b/Production Raw Data/Summary of Materials made in each tank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Production Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FFC62-CC20-445A-8E5B-BCFBE7AE8542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F2D61F-467D-4BB3-A966-384B3F5E300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{33DB624C-BA43-4DFC-9617-BBAC7320D1B1}"/>
+    <workbookView minimized="1" xWindow="5385" yWindow="4095" windowWidth="7500" windowHeight="6000" xr2:uid="{33DB624C-BA43-4DFC-9617-BBAC7320D1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A2:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <f>SUM(B3:Q3)</f>
+        <f t="shared" ref="R3:R48" si="0">SUM(B3:Q3)</f>
         <v>13</v>
       </c>
     </row>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <f>SUM(B4:Q4)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="R5">
-        <f>SUM(B5:Q5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -590,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="R6">
-        <f>SUM(B6:Q6)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <f>SUM(B7:Q7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="R8">
-        <f>SUM(B8:Q8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="R9">
-        <f>SUM(B9:Q9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="R10">
-        <f>SUM(B10:Q10)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <f>SUM(B11:Q11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <f>SUM(B12:Q12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <f>SUM(B13:Q13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <f>SUM(B14:Q14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <f>SUM(B15:Q15)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <f>SUM(B16:Q16)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f>SUM(B17:Q17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="R18">
-        <f>SUM(B18:Q18)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="R19">
-        <f>SUM(B19:Q19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <f>SUM(B20:Q20)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <f>SUM(B21:Q21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <f>SUM(B22:Q22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <f>SUM(B23:Q23)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <f>SUM(B24:Q24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <f>SUM(B25:Q25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <f>SUM(B26:Q26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <f>SUM(B27:Q27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <f>SUM(B28:Q28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <f>SUM(B29:Q29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <f>SUM(B30:Q30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <f>SUM(B31:Q31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="R32">
-        <f>SUM(B32:Q32)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="R33">
-        <f>SUM(B33:Q33)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <f>SUM(B34:Q34)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <f>SUM(B35:Q35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="R36">
-        <f>SUM(B36:Q36)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <f>SUM(B37:Q37)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <f>SUM(B38:Q38)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <f>SUM(B39:Q39)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="R40">
-        <f>SUM(B40:Q40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <f>SUM(B41:Q41)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="R42">
-        <f>SUM(B42:Q42)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <f>SUM(B43:Q43)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="R44">
-        <f>SUM(B44:Q44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="R45">
-        <f>SUM(B45:Q45)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="R46">
-        <f>SUM(B46:Q46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="R47">
-        <f>SUM(B47:Q47)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -1331,74 +1331,78 @@
         <v>1</v>
       </c>
       <c r="R48">
-        <f>SUM(B48:Q48)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f>SUM(B3:B48)</f>
-        <v>13</v>
+        <f>COUNT(B3:B48)</f>
+        <v>4</v>
       </c>
       <c r="C49">
-        <f>SUM(C3:C48)</f>
-        <v>25</v>
+        <f t="shared" ref="C49:Q49" si="1">COUNT(C3:C48)</f>
+        <v>9</v>
       </c>
       <c r="D49">
-        <f>SUM(D3:D48)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="E49">
-        <f>SUM(E3:E48)</f>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F49">
-        <f>SUM(F3:F48)</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="G49">
-        <f>SUM(G3:G48)</f>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H49">
-        <f>SUM(H3:H48)</f>
-        <v>15</v>
-      </c>
-      <c r="I49">
-        <f>SUM(I3:I48)</f>
-        <v>3</v>
-      </c>
-      <c r="J49">
-        <f>SUM(J3:J48)</f>
-        <v>27</v>
-      </c>
       <c r="K49">
-        <f>SUM(K3:K48)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="L49">
-        <f>SUM(L3:L48)</f>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="M49">
-        <f>SUM(M3:M48)</f>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="N49">
-        <f>SUM(N3:N48)</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="O49">
-        <f>SUM(O3:O48)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="P49">
-        <f>SUM(P3:P48)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q49">
-        <f>SUM(Q3:Q48)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <f>SUM(R3:R48)</f>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
